--- a/TestResults/MHI_Test_Drive_log-2013-10-21_full-sweep_1s-cycle-IDs.xlsx
+++ b/TestResults/MHI_Test_Drive_log-2013-10-21_full-sweep_1s-cycle-IDs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="27555" windowHeight="13005"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="24240" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="MHI_Test_Drive_log-2013-10-21_f" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -981,11 +981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59438976"/>
-        <c:axId val="59437440"/>
+        <c:axId val="78509568"/>
+        <c:axId val="78783616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59438976"/>
+        <c:axId val="78509568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,12 +995,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59437440"/>
+        <c:crossAx val="78783616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59437440"/>
+        <c:axId val="78783616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59438976"/>
+        <c:crossAx val="78509568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,7 +1358,7 @@
   <dimension ref="C3:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
